--- a/ExcelDynamicCase/publish/Application Files/ExcelDynamicCase_1_0_0_4/ExcelDynamicCase.xlsx
+++ b/ExcelDynamicCase/publish/Application Files/ExcelDynamicCase_1_0_0_4/ExcelDynamicCase.xlsx
@@ -929,7 +929,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2688C0F-74B0-41B1-A2A7-505884261AA2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA501B8A-AED2-46FE-AE28-66F451EA6E12}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>